--- a/slippymap/TestGpsCoordsToTileInfo.xlsx
+++ b/slippymap/TestGpsCoordsToTileInfo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikenye/Development/go/pw-slippymap/slippymap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B420F7AB-6E00-3D4A-A112-9291EFDC22AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016342D-052F-D741-829C-FD023E0362FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5440" windowWidth="17220" windowHeight="11680" xr2:uid="{4CC10760-072E-974A-86A9-6417102149D2}"/>
+    <workbookView xWindow="23120" yWindow="1540" windowWidth="17220" windowHeight="11680" xr2:uid="{4CC10760-072E-974A-86A9-6417102149D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,7 +415,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-43.172899999999998</v>
+        <v>115.8613</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-22.9068</v>
+        <v>-31.952300000000001</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
       </c>
       <c r="C6">
         <f>2^C4</f>
-        <v>8192</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -468,19 +468,19 @@
       </c>
       <c r="C7">
         <f>C6*((C2+180)/360)</f>
-        <v>3113.5766755555555</v>
+        <v>26929.952995555559</v>
       </c>
       <c r="D7">
         <f>_xlfn.FLOOR.MATH(C7)</f>
-        <v>3113</v>
+        <v>26929</v>
       </c>
       <c r="E7">
         <f>C7-D7</f>
-        <v>0.57667555555553918</v>
+        <v>0.95299555555902771</v>
       </c>
       <c r="F7">
         <f>E7*100000</f>
-        <v>57667.555555553918</v>
+        <v>95299.555555902771</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -489,7 +489,7 @@
       </c>
       <c r="C8">
         <f>RADIANS(C3)</f>
-        <v>-0.39979908109583712</v>
+        <v>-0.55767283858498418</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -498,15 +498,15 @@
       </c>
       <c r="C9">
         <f>C6*(1-(LN(TAN(C8)+_xlfn.SEC(C8))/PI()))/2</f>
-        <v>4631.7252109449037</v>
+        <v>19456.014778496978</v>
       </c>
       <c r="D9">
         <f>_xlfn.FLOOR.MATH(C9)</f>
-        <v>4631</v>
+        <v>19456</v>
       </c>
       <c r="E9">
         <f>C9-D9</f>
-        <v>0.72521094490366522</v>
+        <v>1.477849697766942E-2</v>
       </c>
     </row>
   </sheetData>

--- a/slippymap/TestGpsCoordsToTileInfo.xlsx
+++ b/slippymap/TestGpsCoordsToTileInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikenye/Development/go/pw-slippymap/slippymap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016342D-052F-D741-829C-FD023E0362FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66675819-0367-BB4E-8450-BB0CDB03968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23120" yWindow="1540" windowWidth="17220" windowHeight="11680" xr2:uid="{4CC10760-072E-974A-86A9-6417102149D2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10380" windowHeight="16580" xr2:uid="{4CC10760-072E-974A-86A9-6417102149D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
